--- a/Jenewein 12Nov2024/BEAM ARVO Export 13-Nov-2024 - With Clinicals.xlsx
+++ b/Jenewein 12Nov2024/BEAM ARVO Export 13-Nov-2024 - With Clinicals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VNEL\Documents\GitHub\BeamAnalysis\Jenewein 12Nov2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F0B57E-99BF-40BE-A4AB-4B605C28BB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37374C3-0F1F-4844-A492-26E73FFFE380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{9E81C26E-A6C1-481F-A5AB-A81EA3B2C44E}"/>
   </bookViews>
@@ -997,7 +997,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,6 +1931,21 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.25298685799999998</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>10.67145165</v>
+      </c>
+      <c r="F17">
+        <v>10.00232302</v>
+      </c>
       <c r="H17">
         <v>60</v>
       </c>
@@ -1965,6 +1980,21 @@
       <c r="A18" t="s">
         <v>37</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1.716397849</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>21.490579950000001</v>
+      </c>
+      <c r="F18">
+        <v>11.330020040000001</v>
+      </c>
       <c r="H18">
         <v>45</v>
       </c>
@@ -2018,6 +2048,21 @@
       <c r="A19" t="s">
         <v>38</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.48690153600000002</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>15.37889253</v>
+      </c>
+      <c r="F19">
+        <v>10.643358210000001</v>
+      </c>
       <c r="H19">
         <v>20</v>
       </c>
@@ -2046,6 +2091,21 @@
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>6.3835125450000003</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>15.87534129</v>
+      </c>
+      <c r="F20">
+        <v>13.734829</v>
       </c>
       <c r="H20">
         <v>20</v>
